--- a/data/trans_bre/P11_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.31348577376539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.192574589314056</v>
+        <v>9.192574589314063</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3006326224684242</v>
@@ -649,7 +649,7 @@
         <v>0.4771732293546426</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2317098869029261</v>
+        <v>0.2317098869029262</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.85110631857686</v>
+        <v>3.646575912564247</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.11634799639075</v>
+        <v>10.25094672512019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.654991547123297</v>
+        <v>7.297204833069479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.672380185918116</v>
+        <v>3.479256030150274</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.121251312890789</v>
+        <v>0.1161531780858209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4407177657593415</v>
+        <v>0.452072188366051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3020931840821527</v>
+        <v>0.2800893758903625</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.06248717502488099</v>
+        <v>0.08016287281293574</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.08680257496745</v>
+        <v>13.27760998201541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.64214471141149</v>
+        <v>18.0350730508071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.81263583850707</v>
+        <v>14.67114411950678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.95509603310743</v>
+        <v>15.4770033866332</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.513227507551533</v>
+        <v>0.5162261177428198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9438980229553964</v>
+        <v>0.9984720621259326</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6754862332049977</v>
+        <v>0.6729681922732293</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4134909859611429</v>
+        <v>0.4261044878203638</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.885459589522042</v>
+        <v>5.966749816100208</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.58500894516993</v>
+        <v>10.66926779135208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.429006961226919</v>
+        <v>6.86058093918972</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.392485898880587</v>
+        <v>7.550117836690482</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2886552155134446</v>
+        <v>0.2840461326349888</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5034054491165747</v>
+        <v>0.5177037755484082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3580647411436306</v>
+        <v>0.3795932211918777</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2340800651252631</v>
+        <v>0.2372752523045859</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.84788422347894</v>
+        <v>12.99950207528897</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.74103037673868</v>
+        <v>18.50141602836875</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.34589634315403</v>
+        <v>14.457248706364</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.48156254887627</v>
+        <v>15.43556058980332</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7783961112102183</v>
+        <v>0.7716722867145532</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.096935941024106</v>
+        <v>1.098742864810024</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.955092614803405</v>
+        <v>0.9732471209269954</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5827601583698964</v>
+        <v>0.5887107813889807</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.6595114348623604</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4792657760704011</v>
+        <v>0.4792657760704013</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.092346184489456</v>
+        <v>9.065099468218349</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.784606888981831</v>
+        <v>5.849925584216589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.756089451557624</v>
+        <v>6.308778704366416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.961783880521569</v>
+        <v>7.401405685208891</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5903186521535926</v>
+        <v>0.5799547006021717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2716909004103509</v>
+        <v>0.2688628069180024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3381939308573609</v>
+        <v>0.3872734029720167</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.287863081342855</v>
+        <v>0.2937263889704316</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.21518234949686</v>
+        <v>15.91514676668981</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.42807908680917</v>
+        <v>14.0529327978099</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.93432685969574</v>
+        <v>14.1604949102632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.5858911216478</v>
+        <v>14.33380232666538</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.280406960385423</v>
+        <v>1.261045961148278</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7826957056735628</v>
+        <v>0.8256410754670047</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.054085781700695</v>
+        <v>1.091756333652565</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7105283795473075</v>
+        <v>0.6968300454404769</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.069888466115628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.945645263482065</v>
+        <v>7.945645263482056</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3474658954834675</v>
@@ -949,7 +949,7 @@
         <v>0.3951470266837033</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3628662332644456</v>
+        <v>0.3628662332644451</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9572532145572559</v>
+        <v>-0.7675028678028856</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.474348636660978</v>
+        <v>2.219139011920512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5840877743528294</v>
+        <v>1.296669868300453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.348756846712585</v>
+        <v>4.22587304735128</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06081068077560646</v>
+        <v>-0.05263286819443535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1321027908793004</v>
+        <v>0.1160576181740815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03003167042551203</v>
+        <v>0.06822544297760302</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1802590121302321</v>
+        <v>0.1773623394859669</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.890666961672711</v>
+        <v>10.2247402577444</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.00222508320828</v>
+        <v>13.09406989818583</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.08169626609757</v>
+        <v>11.20480967400357</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.00389902391601</v>
+        <v>11.74080267354581</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8818703661125391</v>
+        <v>0.9365107247994024</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.064117066849879</v>
+        <v>0.9889459063213906</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8850010046078105</v>
+        <v>0.8881304142131072</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6135416060524012</v>
+        <v>0.6028798941626207</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>10.26924443917182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10.66495036582752</v>
+        <v>10.66495036582751</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6089124795365733</v>
@@ -1049,7 +1049,7 @@
         <v>0.5550275395222405</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4026384058220074</v>
+        <v>0.4026384058220069</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.94357971327234</v>
+        <v>8.862773869642355</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.36794537769199</v>
+        <v>10.08562146993714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.978893968548532</v>
+        <v>8.122448930998551</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.502480636143193</v>
+        <v>8.770214766811511</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4703609997421188</v>
+        <v>0.4633915664477345</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.529127419515154</v>
+        <v>0.5045638196949221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4164385413179069</v>
+        <v>0.4151542584338024</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.306323851893369</v>
+        <v>0.3152335917622217</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.94322882927589</v>
+        <v>12.83379128015179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.43376685830409</v>
+        <v>14.45825193522427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.40669141204781</v>
+        <v>12.29406940794769</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.55767689540064</v>
+        <v>12.74563967611232</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7551979114446139</v>
+        <v>0.7503279072843855</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8222866304523028</v>
+        <v>0.8191151957713481</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7160653690993589</v>
+        <v>0.6939040851369314</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4947790386851038</v>
+        <v>0.5032128670103323</v>
       </c>
     </row>
     <row r="19">
